--- a/mbti/mbti.xlsx
+++ b/mbti/mbti.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanj\Desktop\web\mbti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A8D319-55B0-465F-92E5-A8F152A64D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99827DD9-02FE-4C01-8718-0D7D4C6DFCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C71C5FC9-1782-4787-85AD-40130981B708}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C71C5FC9-1782-4787-85AD-40130981B708}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="ref" sheetId="2" r:id="rId2"/>
+    <sheet name="output1" sheetId="5" r:id="rId3"/>
+    <sheet name="output2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
   <authors>
     <author>tc={96B2BE57-D553-4439-999D-087C52AD3B78}</author>
     <author>tc={4F420343-4A5B-4C24-A313-ECF93A22DB3C}</author>
-    <author>tc={83D2C5BA-7315-4451-9C25-7368AB0C27F3}</author>
+    <author>tc={69F71925-9D25-4AC8-9BA3-D5745D632F70}</author>
     <author>tc={B2462640-5483-4699-9D95-67BBA68A2C9F}</author>
     <author>tc={C74AA71C-3226-4A37-AEB0-96C6ACEEC656}</author>
     <author>tc={97A2588A-A06A-4577-A251-92871AC5690C}</author>
@@ -63,7 +65,7 @@
     기본 날짜 삽입</t>
       </text>
     </comment>
-    <comment ref="Y14" authorId="2" shapeId="0" xr:uid="{83D2C5BA-7315-4451-9C25-7368AB0C27F3}">
+    <comment ref="Z14" authorId="2" shapeId="0" xr:uid="{69F71925-9D25-4AC8-9BA3-D5745D632F70}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -116,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -383,6 +385,29 @@
   <si>
     <t>퍼센트</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>val</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>-T</t>
   </si>
 </sst>
 </file>
@@ -390,11 +415,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,12 +442,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -456,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,22 +494,25 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,7 +842,7 @@
   <threadedComment ref="D14" dT="2023-01-17T17:55:32.51" personId="{A802AC8C-09EA-428F-BA27-ACB8AD1ED465}" id="{4F420343-4A5B-4C24-A313-ECF93A22DB3C}">
     <text>기본 날짜 삽입</text>
   </threadedComment>
-  <threadedComment ref="Y14" dT="2023-01-17T17:54:49.01" personId="{A802AC8C-09EA-428F-BA27-ACB8AD1ED465}" id="{83D2C5BA-7315-4451-9C25-7368AB0C27F3}">
+  <threadedComment ref="Z14" dT="2023-01-17T17:54:49.01" personId="{A802AC8C-09EA-428F-BA27-ACB8AD1ED465}" id="{69F71925-9D25-4AC8-9BA3-D5745D632F70}">
     <text>현재 날짜 삽입</text>
   </threadedComment>
   <threadedComment ref="A16" dT="2023-01-17T17:45:37.37" personId="{A802AC8C-09EA-428F-BA27-ACB8AD1ED465}" id="{B2462640-5483-4699-9D95-67BBA68A2C9F}">
@@ -859,13 +881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E6D7BC-E35F-4FC6-9860-D7008797EC28}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -874,7 +896,7 @@
     <col min="2" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -964,8 +986,11 @@
       <c r="X2" s="1">
         <v>46</v>
       </c>
+      <c r="Y2" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1081,12 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3" si="2">100-Y2</f>
+        <v>64</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1130,8 +1159,11 @@
       <c r="X4" s="1">
         <v>63</v>
       </c>
+      <c r="Y4" s="1">
+        <v>76</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1149,81 +1181,85 @@
         <v>45</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5" si="2">100-F4</f>
+        <f t="shared" ref="F5" si="3">100-F4</f>
         <v>40</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5" si="3">100-G4</f>
+        <f t="shared" ref="G5" si="4">100-G4</f>
         <v>15</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5" si="4">100-H4</f>
+        <f t="shared" ref="H5" si="5">100-H4</f>
         <v>36</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5" si="5">100-I4</f>
+        <f t="shared" ref="I5" si="6">100-I4</f>
         <v>36</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5" si="6">100-J4</f>
+        <f t="shared" ref="J5" si="7">100-J4</f>
         <v>37</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5" si="7">100-K4</f>
+        <f t="shared" ref="K5" si="8">100-K4</f>
         <v>37</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:M5" si="8">100-L4</f>
+        <f t="shared" ref="L5:M5" si="9">100-L4</f>
         <v>33</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5" si="9">100-N4</f>
+        <f t="shared" ref="N5" si="10">100-N4</f>
         <v>41</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5" si="10">100-O4</f>
+        <f t="shared" ref="O5" si="11">100-O4</f>
         <v>40</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" ref="P5" si="11">100-P4</f>
+        <f t="shared" ref="P5" si="12">100-P4</f>
         <v>40</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5" si="12">100-R4</f>
+        <f t="shared" ref="R5" si="13">100-R4</f>
         <v>31</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" ref="S5" si="13">100-S4</f>
+        <f t="shared" ref="S5" si="14">100-S4</f>
         <v>42</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" ref="T5" si="14">100-T4</f>
+        <f t="shared" ref="T5" si="15">100-T4</f>
         <v>31</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" ref="V5" si="15">100-V4</f>
+        <f t="shared" ref="V5" si="16">100-V4</f>
         <v>52</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" ref="W5" si="16">100-W4</f>
+        <f t="shared" ref="W5" si="17">100-W4</f>
         <v>42</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" ref="X5" si="17">100-X4</f>
+        <f t="shared" ref="X5" si="18">100-X4</f>
         <v>37</v>
       </c>
+      <c r="Y5" s="1">
+        <f t="shared" ref="Y5" si="19">100-Y4</f>
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1296,8 +1332,11 @@
       <c r="X6" s="1">
         <v>49</v>
       </c>
+      <c r="Y6" s="1">
+        <v>61</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1311,85 +1350,89 @@
         <v>28</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:X7" si="18">100-E6</f>
+        <f t="shared" ref="E7:X7" si="20">100-E6</f>
         <v>44</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>51</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>51</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>56</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="Q7" s="1">
         <v>3</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>42</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>70</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>57</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>51</v>
       </c>
+      <c r="Y7" s="1">
+        <f t="shared" ref="Y7" si="21">100-Y6</f>
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1462,8 +1505,11 @@
       <c r="X8" s="1">
         <v>35</v>
       </c>
+      <c r="Y8" s="1">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1477,85 +1523,89 @@
         <v>36</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:X9" si="19">100-E8</f>
+        <f t="shared" ref="E9:X9" si="22">100-E8</f>
         <v>39</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>29</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>72</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>65</v>
       </c>
+      <c r="Y9" s="1">
+        <f t="shared" ref="Y9" si="23">100-Y8</f>
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -1628,8 +1678,11 @@
       <c r="X10" s="1">
         <v>63</v>
       </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1643,85 +1696,88 @@
         <v>43</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11:X11" si="20">100-E10</f>
+        <f t="shared" ref="E11:X11" si="24">100-E10</f>
         <v>63</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>79</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>65</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>64</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>78</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>74</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>68</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>68</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>58</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>53</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>44</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>31</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>37</v>
       </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1730,83 +1786,87 @@
         <v>INTJ</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" ref="F12:X12" si="21">IF(F2&gt;F3,$C$2,$C$3)&amp;IF(F4&gt;F5,$C$4,$C$5)&amp;IF(F6&gt;F7,$C$6,$C$7)&amp;IF(F8&gt;F9,$C$8,$C$9)</f>
+        <f t="shared" ref="F12:X12" si="25">IF(F2&gt;F3,$C$2,$C$3)&amp;IF(F4&gt;F5,$C$4,$C$5)&amp;IF(F6&gt;F7,$C$6,$C$7)&amp;IF(F8&gt;F9,$C$8,$C$9)</f>
         <v>INTJ</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INTJ</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INFJ</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INTJ</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INTJ</v>
       </c>
       <c r="K12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INTJ</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INFJ</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f t="shared" ref="M12" si="22">IF(M2&gt;M3,$C$2,$C$3)&amp;IF(M4&gt;M5,$C$4,$C$5)&amp;IF(M6&gt;M7,$C$6,$C$7)&amp;IF(M8&gt;M9,$C$8,$C$9)</f>
+        <f t="shared" ref="M12" si="26">IF(M2&gt;M3,$C$2,$C$3)&amp;IF(M4&gt;M5,$C$4,$C$5)&amp;IF(M6&gt;M7,$C$6,$C$7)&amp;IF(M8&gt;M9,$C$8,$C$9)</f>
         <v>INFJ</v>
       </c>
       <c r="N12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INTJ</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INTJ</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INTP</v>
       </c>
       <c r="Q12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INFJ</v>
       </c>
       <c r="R12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>ENTJ</v>
       </c>
       <c r="S12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>ENTP</v>
       </c>
       <c r="T12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INTJ</v>
       </c>
       <c r="U12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INFJ</v>
       </c>
       <c r="V12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>ESFP</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INFP</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>INFP</v>
       </c>
+      <c r="Y12" s="1" t="str">
+        <f t="shared" ref="Y12" si="27">IF(Y2&gt;Y3,$C$2,$C$3)&amp;IF(Y4&gt;Y5,$C$4,$C$5)&amp;IF(Y6&gt;Y7,$C$6,$C$7)&amp;IF(Y8&gt;Y9,$C$8,$C$9)</f>
+        <v>INTJ</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1818,83 +1878,87 @@
         <v>INTJ-T</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13:X13" si="23">IF(F10+F11=0,"",IF(F2&gt;F3,$C$2,$C$3)&amp;IF(F4&gt;F5,$C$4,$C$5)&amp;IF(F6&gt;F7,$C$6,$C$7)&amp;IF(F8&gt;F9,$C$8,$C$9)&amp;$D$13&amp;IF(F10&gt;F11,$C$10,$C$11))</f>
+        <f t="shared" ref="F13:X13" si="28">IF(F10+F11=0,"",IF(F2&gt;F3,$C$2,$C$3)&amp;IF(F4&gt;F5,$C$4,$C$5)&amp;IF(F6&gt;F7,$C$6,$C$7)&amp;IF(F8&gt;F9,$C$8,$C$9)&amp;$D$13&amp;IF(F10&gt;F11,$C$10,$C$11))</f>
         <v>INTJ-T</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INTJ-T</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INFJ-T</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INTJ-T</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INTJ-T</v>
       </c>
       <c r="K13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INTJ-T</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INFJ-T</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f t="shared" ref="M13" si="24">IF(M10+M11=0,"",IF(M2&gt;M3,$C$2,$C$3)&amp;IF(M4&gt;M5,$C$4,$C$5)&amp;IF(M6&gt;M7,$C$6,$C$7)&amp;IF(M8&gt;M9,$C$8,$C$9)&amp;$D$13&amp;IF(M10&gt;M11,$C$10,$C$11))</f>
+        <f t="shared" ref="M13" si="29">IF(M10+M11=0,"",IF(M2&gt;M3,$C$2,$C$3)&amp;IF(M4&gt;M5,$C$4,$C$5)&amp;IF(M6&gt;M7,$C$6,$C$7)&amp;IF(M8&gt;M9,$C$8,$C$9)&amp;$D$13&amp;IF(M10&gt;M11,$C$10,$C$11))</f>
         <v>INFJ-T</v>
       </c>
       <c r="N13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INTJ-T</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INTJ-T</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INTP-T</v>
       </c>
       <c r="Q13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>ENTJ-T</v>
       </c>
       <c r="S13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>ENTP-T</v>
       </c>
       <c r="T13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INTJ-T</v>
       </c>
       <c r="U13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="V13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>ESFP-A</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INFP-A</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>INFP-A</v>
       </c>
+      <c r="Y13" s="1" t="str">
+        <f t="shared" ref="Y13" si="30">IF(Y10+Y11=0,"",IF(Y2&gt;Y3,$C$2,$C$3)&amp;IF(Y4&gt;Y5,$C$4,$C$5)&amp;IF(Y6&gt;Y7,$C$6,$C$7)&amp;IF(Y8&gt;Y9,$C$8,$C$9)&amp;$D$13&amp;IF(Y10&gt;Y11,$C$10,$C$11))</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1965,12 +2029,15 @@
       <c r="X14" s="3">
         <v>44842</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="3">
+        <v>44944</v>
+      </c>
+      <c r="Z14" s="5">
         <f ca="1">TODAY()</f>
         <v>44944</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -2035,8 +2102,11 @@
       <c r="X15" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="Y15" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -2045,174 +2115,179 @@
         <v>0.46415888336127786</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:X16" si="25">1/POWER((ABS(G14-F14-30)+ABS(F14-E14-30)+1),1/3)</f>
+        <f t="shared" ref="F16:W16" si="31">1/POWER((ABS(G14-F14-30)+ABS(F14-E14-30)+1),1/3)</f>
         <v>0.41491326668312178</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.24037492838456812</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.21333114210262791</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.21544346900318836</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.2147300748096567</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.24621153689901365</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.2554364774645177</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.21063897888437538</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.21689921227683304</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.34199518933533946</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.35163388691695935</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.27709841865296209</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.3218297948685433</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.35163388691695935</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.26965590889371926</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.24499865251482231</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.25833941322341275</v>
       </c>
       <c r="W16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.32548726473766765</v>
       </c>
       <c r="X16" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f>1/POWER((ABS(Y14-X14-30)+ABS(X14-W14-30)+1),1/3)</f>
         <v>0.23112042478354489</v>
       </c>
+      <c r="Y16" s="6">
+        <f ca="1">1/POWER((ABS(Z14-Y14-30)+ABS(Y14-X14-30)+1),1/3)</f>
+        <v>0.21333114210262791</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:W17" ca="1" si="26">POWER((E14-$D$14)/($C$14-$D$14),2)</f>
+        <f t="shared" ref="E17:W17" ca="1" si="32">POWER((E14-$D$14)/($C$14-$D$14),2)</f>
         <v>1.0129907365633789E-3</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>2.9609687606727696E-3</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>6.4131484300224721E-3</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>3.1913951654727227E-2</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>6.0716198154058917E-2</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.11688816835252498</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.16865610598349698</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.2220789816544321</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.2220789816544321</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.33649528395363648</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.34730086984386666</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.38838233495945934</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.40258634138525695</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.48027461430456758</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.52689116199840624</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.54190155543093743</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.54190155543093743</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.64790929674620212</v>
       </c>
       <c r="W17" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0.73318604033410772</v>
       </c>
       <c r="X17" s="6">
         <f ca="1">POWER((X14-$D$14)/($C$14-$D$14),2)</f>
         <v>0.80152127807597107</v>
       </c>
+      <c r="Y17" s="6">
+        <f ca="1">POWER((Y14-$D$14)/($C$14-$D$14),2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,172 +2295,180 @@
         <v>52</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:W18" si="27">IF(E15=$B$18,1,IF(E15=$C$18,1.5,2))</f>
+        <f>IF(E15=$D$18,2,IF(E15=$C$18,1.5,1))</f>
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="F18:Y18" si="33">IF(F15=$D$18,2,IF(F15=$C$18,1.5,1))</f>
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.5</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="X18" s="1">
-        <f>IF(X15=$B$18,1,IF(X15=$C$18,1.5,2))</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="8">
-        <f>IF(E15=$B$18,1,IF(E15=$C$18,1,10/3))</f>
+      <c r="E19" s="7">
+        <f>IF(E15=$D$18,10/3,1)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="8">
-        <f t="shared" ref="F19:X19" si="28">IF(F15=$B$18,1,IF(F15=$C$18,1,10/3))</f>
+      <c r="F19" s="7">
+        <f t="shared" ref="F19:Y19" si="34">IF(F15=$D$18,10/3,1)</f>
         <v>1</v>
       </c>
-      <c r="G19" s="8">
-        <f t="shared" si="28"/>
+      <c r="G19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="H19" s="8">
-        <f t="shared" si="28"/>
+      <c r="H19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="I19" s="8">
-        <f t="shared" si="28"/>
+      <c r="I19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="J19" s="8">
-        <f t="shared" si="28"/>
+      <c r="J19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="K19" s="8">
-        <f t="shared" si="28"/>
+      <c r="K19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="L19" s="8">
-        <f t="shared" si="28"/>
+      <c r="L19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M19" s="8">
-        <f t="shared" si="28"/>
+      <c r="M19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="N19" s="8">
-        <f t="shared" si="28"/>
+      <c r="N19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="O19" s="8">
-        <f t="shared" si="28"/>
+      <c r="O19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="P19" s="8">
-        <f t="shared" si="28"/>
+      <c r="P19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="8">
-        <f t="shared" si="28"/>
+      <c r="Q19" s="7">
+        <f t="shared" si="34"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R19" s="8">
-        <f t="shared" si="28"/>
+      <c r="R19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="S19" s="8">
-        <f t="shared" si="28"/>
+      <c r="S19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="T19" s="8">
-        <f t="shared" si="28"/>
+      <c r="T19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="U19" s="8">
-        <f>IF(U15=$B$18,1,IF(U15=$C$18,1,10/3))</f>
+      <c r="U19" s="7">
+        <f t="shared" si="34"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V19" s="8">
-        <f t="shared" si="28"/>
+      <c r="V19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="W19" s="8">
-        <f t="shared" si="28"/>
+      <c r="W19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="X19" s="8">
-        <f t="shared" si="28"/>
+      <c r="X19" s="7">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
+      <c r="Y19" s="7">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -2394,83 +2477,87 @@
         <v>4.7018864913857635E-4</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20:X20" ca="1" si="29">PRODUCT(F16:F19)</f>
+        <f t="shared" ref="F20:Y20" ca="1" si="35">PRODUCT(F16:F19)</f>
         <v>1.2285452210374134E-3</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>1.5415600945862572E-3</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>6.8082397555110112E-3</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>1.3080908354995435E-2</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>2.5099405134701436E-2</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>4.1525079061599725E-2</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>5.6727072792715383E-2</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>7.0167734891057265E-2</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>7.2985562024413003E-2</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.11877522673858126</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.13656839005167914</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.74370692379424164</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.15456668060220774</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.18527278727569288</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.14612695646064963</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.88510100584177298</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.16738050754340786</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.23864271881218999</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0.18524793826196823</v>
       </c>
+      <c r="Y20" s="6">
+        <f t="shared" ca="1" si="35"/>
+        <v>0.21333114210262791</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +2574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -2497,92 +2584,96 @@
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="10">
-        <f ca="1">SUM(E23:X23)</f>
-        <v>72.901447304931878</v>
+      <c r="D23" s="9">
+        <f ca="1">SUM(E23:EU23)</f>
+        <v>80.58136842062649</v>
       </c>
       <c r="E23" s="6">
         <f ca="1">E2*E$20</f>
         <v>1.8807545965543054E-2</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" ref="F23:X32" ca="1" si="30">F2*F$20</f>
+        <f t="shared" ref="F23:X32" ca="1" si="36">F2*F$20</f>
         <v>3.9313447073197227E-2</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.0120843688864029E-2</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.2519048709539074</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.41858906735985391</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.55218691296343159</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.2872774509095914</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.4181768198178846</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.9646965769496034</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.4303214151474113</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.751009069543251</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.3261672120154868</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.6557341137236339</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.8194577256117235</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.2147930421342918</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>11.71663552803855</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>11.454850502985119</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.5214051600505378</v>
       </c>
+      <c r="Y23" s="6">
+        <f t="shared" ref="Y23" ca="1" si="37">Y2*Y$20</f>
+        <v>7.6799211156946043</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2592,92 +2683,96 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="10">
-        <f t="shared" ref="D24:D32" ca="1" si="31">SUM(E24:X24)</f>
-        <v>96.437647427972095</v>
+      <c r="D24" s="9">
+        <f t="shared" ref="D24:D32" ca="1" si="38">SUM(E24:EU24)</f>
+        <v>110.09084052254028</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" ref="E24:T32" ca="1" si="32">E3*E$20</f>
+        <f t="shared" ref="E24:T32" ca="1" si="39">E3*E$20</f>
         <v>2.8211318948314582E-2</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>8.3541075030544115E-2</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>9.4035165769761689E-2</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.42891910459719368</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.88950176813968951</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1.957753600506712</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>2.8652304552503809</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>4.2545304594536537</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>5.0520769121561226</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>3.8682347872938894</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>7.1265136043148756</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>8.3306717931524279</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>4.46224154276545</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>6.8009339464971408</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>8.7078210019575657</v>
       </c>
       <c r="T24" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>11.397902603930671</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.6553030175253189</v>
       </c>
       <c r="V24" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.0214152263022358</v>
       </c>
       <c r="W24" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>12.40942137823388</v>
       </c>
       <c r="X24" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>10.003388666146284</v>
       </c>
+      <c r="Y24" s="6">
+        <f t="shared" ref="Y24" ca="1" si="40">Y3*Y$20</f>
+        <v>13.653193094568186</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2687,92 +2782,96 @@
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="10">
-        <f t="shared" ca="1" si="31"/>
-        <v>131.62582215799003</v>
+      <c r="D25" s="9">
+        <f t="shared" ca="1" si="38"/>
+        <v>147.83898895778975</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>2.5860375702621698E-2</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.3712713262244794E-2</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.13103260803983185</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.43572734435270472</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.83717813471970781</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.5812625234861906</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.6160799808807829</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.8007138771119306</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.420567298136608</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.306148159440367</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.1265136043148756</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.1941034031007494</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>17.105259247267558</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>10.665100961552334</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>10.745821661990187</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>10.082759995784825</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>15.931818105151914</v>
       </c>
       <c r="V25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.0342643620835776</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>13.841277691107019</v>
       </c>
       <c r="X25" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>11.670620110503998</v>
       </c>
+      <c r="Y25" s="6">
+        <f t="shared" ref="Y25" ca="1" si="41">Y4*Y$20</f>
+        <v>16.213166799799723</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2782,92 +2881,96 @@
       <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" ca="1" si="31"/>
-        <v>63.632805367042671</v>
+      <c r="D26" s="9">
+        <f t="shared" ca="1" si="38"/>
+        <v>68.752752777505748</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>2.1158489211235938E-2</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.9141808841496534E-2</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.3123401418793859E-2</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.24509663119839639</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.47091270077983566</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.92867798998395312</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.5364279252791899</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.8719934021596076</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.5962061909691188</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.9924080430009332</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.751009069543251</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.4627356020671662</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.7915670986684402</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.7814570655791009</v>
       </c>
       <c r="T26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.5299356502801382</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.703786392257209</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>10.02299419011198</v>
       </c>
       <c r="X26" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.8541737156928244</v>
       </c>
+      <c r="Y26" s="6">
+        <f t="shared" ref="Y26" ca="1" si="42">Y5*Y$20</f>
+        <v>5.1199474104630696</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -2877,92 +2980,96 @@
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="10">
-        <f t="shared" ca="1" si="31"/>
-        <v>78.500446201277967</v>
+      <c r="D27" s="9">
+        <f t="shared" ca="1" si="38"/>
+        <v>91.513645869538266</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>2.6330564351760274E-2</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.8798532378095148E-2</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.8659846053520461E-2</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.33360374802003956</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.69328814281475803</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.3553678772738775</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.3254044274495844</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.7796265668430538</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.0873803352065199</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.7222636632450632</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.295087017144807</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.2381246727389943</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.1920340719170106</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.4489121510603375</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.4753634747176783</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.0214152263022358</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>10.261636908924169</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.0771489748364438</v>
       </c>
+      <c r="Y27" s="6">
+        <f t="shared" ref="Y27" ca="1" si="43">Y6*Y$20</f>
+        <v>13.013199668260302</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2972,92 +3079,96 @@
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="10">
-        <f t="shared" ca="1" si="31"/>
-        <v>86.837325748559763</v>
+      <c r="D28" s="9">
+        <f t="shared" ca="1" si="38"/>
+        <v>95.157240290562257</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>2.0688300562097358E-2</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.4055989725646188E-2</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.5496163405105256E-2</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.34722022753106158</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.61480269268478538</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.154572636196266</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.8271034787103879</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.8930807124284845</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.9293931538992068</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.576292539196237</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.5824356567133195</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.4187143324289195</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.231120771382725</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.2646339883037641</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.0783665765089516</v>
       </c>
       <c r="T28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.1373321713472846</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.88510100584177298</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>11.71663552803855</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>13.60263497229483</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.4476448513603799</v>
       </c>
+      <c r="Y28" s="6">
+        <f t="shared" ref="Y28" ca="1" si="44">Y7*Y$20</f>
+        <v>8.319914542002488</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -3067,92 +3178,96 @@
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="10">
-        <f t="shared" ca="1" si="31"/>
-        <v>89.383463330181357</v>
+      <c r="D29" s="9">
+        <f t="shared" ca="1" si="38"/>
+        <v>102.60999414054429</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>2.8681507597453158E-2</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.9855439367431863E-2</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.11561700709396928</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.38806966606412763</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.69328814281475803</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.7067595491596976</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.3669295065111844</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.9141680226973614</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.490735033027665</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.1819749037333231</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.6016145112692008</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.6918511125322784</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.7185346189712081</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.8103007943258405</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.0783665765089516</v>
       </c>
       <c r="T29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.2059982570209264</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.3106060350506379</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.6866542112154201</v>
       </c>
       <c r="W29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.8297805960510303</v>
       </c>
       <c r="X29" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.4836778391688883</v>
       </c>
+      <c r="Y29" s="6">
+        <f t="shared" ref="Y29" ca="1" si="45">Y8*Y$20</f>
+        <v>13.226530810362931</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -3162,92 +3277,96 @@
       <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="10">
-        <f t="shared" ca="1" si="31"/>
-        <v>81.867227496453708</v>
+      <c r="D30" s="9">
+        <f t="shared" ca="1" si="38"/>
+        <v>89.973810896353569</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1.8337357316404478E-2</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.2999082736309466E-2</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.8539002364656433E-2</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.29275430948697351</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.61480269268478538</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.80318096431044594</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.7855783996487882</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.7585392565741769</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.5260384560780613</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.1165812987079771</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.2759081625889257</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.9649878926356363</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.6463672658949324</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.4489121510603375</v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.4066973890440364</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>12.051396543125366</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>15.034491285167968</v>
       </c>
       <c r="X30" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>12.041115987027935</v>
       </c>
+      <c r="Y30" s="6">
+        <f t="shared" ref="Y30" ca="1" si="46">Y9*Y$20</f>
+        <v>8.1065833998998613</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -3257,92 +3376,96 @@
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="10">
-        <f t="shared" ca="1" si="31"/>
+      <c r="D31" s="9">
+        <f t="shared" ca="1" si="38"/>
         <v>75.58275602895543</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>1.7396980018127325E-2</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.5799449641785682E-2</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.3954603310519003E-2</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.21105543242084135</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.47091270077983566</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.55218691296343159</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.0796520556015929</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.4181768198178846</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>2.2453675165138325</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.1383791670497589</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.8008072556346004</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.7358723821705242</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.2646339883037641</v>
       </c>
       <c r="S31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.9667298528547938</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.09155478089819</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.3733084224308403</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>16.466347598041111</v>
       </c>
       <c r="X31" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>11.670620110503998</v>
       </c>
+      <c r="Y31" s="6">
+        <f t="shared" ref="Y31" ca="1" si="47">Y10*Y$20</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -3352,89 +3475,93 @@
       <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="10">
-        <f t="shared" ca="1" si="31"/>
+      <c r="D32" s="9">
+        <f t="shared" ca="1" si="38"/>
         <v>86.63879414365779</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="39"/>
         <v>2.962188489573031E-2</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>9.705507246195566E-2</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.10020140614810671</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.46976854313025979</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.83717813471970781</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.957753600506712</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>3.0728558505583798</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.2545304594536537</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.7714059725918938</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>4.1601770353915413</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.0767154182235252</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.9209666229973905</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>8.1920340719170106</v>
       </c>
       <c r="S32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>10.560548874714494</v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>10.521140865166773</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.3647423319099454</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>7.3979242831778897</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>6.8541737156928244</v>
+      </c>
+      <c r="Y32" s="6">
+        <f t="shared" ref="Y32" ca="1" si="48">Y11*Y$20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -3466,23 +3593,23 @@
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <f ca="1">IF(D23&gt;D24,D23/SUM(D23:D24),D24/SUM(D23:D24))</f>
-        <v>0.56949428943199298</v>
-      </c>
-      <c r="C35" s="9">
+        <v>0.57738272993603801</v>
+      </c>
+      <c r="C35" s="8">
         <f ca="1">IF(D25&gt;D26,D25/SUM(D25:D26),D26/SUM(D25:D26))</f>
-        <v>0.67411014727692498</v>
-      </c>
-      <c r="D35" s="9">
+        <v>0.6825698328723403</v>
+      </c>
+      <c r="D35" s="8">
         <f ca="1">IF(D27&gt;D28,D27/SUM(D27:D28),D28/SUM(D27:D28))</f>
-        <v>0.52521166049646284</v>
-      </c>
-      <c r="E35" s="9">
+        <v>0.50975940730762648</v>
+      </c>
+      <c r="E35" s="8">
         <f ca="1">IF(D29&gt;D30,D29/SUM(D29:D30),D30/SUM(D29:D30))</f>
-        <v>0.52194512558590689</v>
-      </c>
-      <c r="F35" s="9">
+        <v>0.53280697263658727</v>
+      </c>
+      <c r="F35" s="8">
         <f ca="1">IF(D31&gt;D32,D31/SUM(D31:D32),D32/SUM(D31:D32))</f>
         <v>0.53407697097869578</v>
       </c>
@@ -3491,23 +3618,23 @@
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <f ca="1">IF(D23&gt;D24,D23,D24)</f>
-        <v>96.437647427972095</v>
-      </c>
-      <c r="C36" s="10">
+        <v>110.09084052254028</v>
+      </c>
+      <c r="C36" s="9">
         <f ca="1">IF(D25&gt;D26,D25,D26)</f>
-        <v>131.62582215799003</v>
-      </c>
-      <c r="D36" s="10">
+        <v>147.83898895778975</v>
+      </c>
+      <c r="D36" s="9">
         <f ca="1">IF(D27&gt;D28,D27,D28)</f>
-        <v>86.837325748559763</v>
-      </c>
-      <c r="E36" s="10">
+        <v>95.157240290562257</v>
+      </c>
+      <c r="E36" s="9">
         <f ca="1">IF(D29&gt;D30,D29,D30)</f>
-        <v>89.383463330181357</v>
-      </c>
-      <c r="F36" s="10">
+        <v>102.60999414054429</v>
+      </c>
+      <c r="F36" s="9">
         <f ca="1">IF(D31&gt;D32,D31,D32)</f>
         <v>86.63879414365779</v>
       </c>
@@ -3516,31 +3643,31 @@
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <f ca="1">B35*B36</f>
-        <v>54.920689496486034</v>
-      </c>
-      <c r="C37" s="11">
-        <f t="shared" ref="C37:F37" ca="1" si="33">C35*C36</f>
-        <v>88.730302360368995</v>
-      </c>
-      <c r="D37" s="11">
-        <f t="shared" ca="1" si="33"/>
-        <v>45.607976049473322</v>
-      </c>
-      <c r="E37" s="11">
-        <f t="shared" ca="1" si="33"/>
-        <v>46.653262993174813</v>
-      </c>
-      <c r="F37" s="11">
-        <f t="shared" ca="1" si="33"/>
+        <v>63.564550041857302</v>
+      </c>
+      <c r="C37" s="10">
+        <f t="shared" ref="C37:F37" ca="1" si="49">C35*C36</f>
+        <v>100.91043398493431</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" ca="1" si="49"/>
+        <v>48.507298411546408</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" ca="1" si="49"/>
+        <v>54.671320340281362</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" ca="1" si="49"/>
         <v>46.271784745491516</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3554,7 +3681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3568,7 +3695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3582,7 +3709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3595,8 +3722,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E12 F12:X12">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="E10:E12 F12:Y12">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3610,7 +3737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:X3">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3624,7 +3751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:X5 E5:W5">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3638,7 +3765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:X7">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3652,7 +3779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:X9">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3666,7 +3793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:X11">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3679,64 +3806,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y5">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17CD4169-BB7C-478A-B12A-288917858D7D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Y7">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{776B296B-89E0-4108-8EEB-9790EC0BEB23}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y9">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1467C6EB-1CD2-4515-8BCB-3DFBBA1A2C25}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10:Y12">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{26F432F2-61A9-40DA-ADCC-2D83C755B53D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E23:X24">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3750,7 +3821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:X26">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3764,7 +3835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:X28">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3778,7 +3849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:X30">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3792,7 +3863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:X32">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3805,8 +3876,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:X16">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="E16:Y16">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3819,8 +3890,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:X20">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="E20:Y20">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3829,6 +3900,146 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{E97F3290-A5EA-4024-9449-7A3F62EDE351}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y3">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0478A7F-4A9D-48EE-8E3F-A447B8BB1CAC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y5">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E3C8CA0-6032-4472-9622-4ECA73B4DAD8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Y7">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B1C06060-5DC0-423A-BF91-059D07F2E145}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8:Y9">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C3720DAF-15FE-4493-9895-E4B6577AA37D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10:Y11">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3FFEFBFC-8CA4-4174-B846-C9569A9E7D24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y23:Y24">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F020C70-0E57-4D47-A3EB-7E19A1023743}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25:Y26">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F473CC3F-539B-45AD-9895-E9850BCB3104}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y27:Y28">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7CF5EA7A-814F-4F87-98A1-39E58C9B460C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29:Y30">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{48ADDB89-0D93-4D98-A752-FAA1B60D1D7D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y31:Y32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF9D57B7-330C-4D68-BE35-839CDD491D39}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3891,7 +4102,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E10:E12 F12:X12</xm:sqref>
+          <xm:sqref>E10:E12 F12:Y12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7DCB9744-9387-414D-857D-77EF089B775F}">
@@ -3947,50 +4158,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>F10:X11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{17CD4169-BB7C-478A-B12A-288917858D7D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Y4:Y5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{776B296B-89E0-4108-8EEB-9790EC0BEB23}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Y6:Y7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1467C6EB-1CD2-4515-8BCB-3DFBBA1A2C25}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Y8:Y9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{26F432F2-61A9-40DA-ADCC-2D83C755B53D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Y10:Y12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D8EF4B6-0CAC-48D1-B6C5-C0BF6AEDCB80}">
@@ -4062,7 +4229,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E16:X16</xm:sqref>
+          <xm:sqref>E16:Y16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E97F3290-A5EA-4024-9449-7A3F62EDE351}">
@@ -4073,7 +4240,123 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E20:X20</xm:sqref>
+          <xm:sqref>E20:Y20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0478A7F-4A9D-48EE-8E3F-A447B8BB1CAC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y2:Y3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0E3C8CA0-6032-4472-9622-4ECA73B4DAD8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y4:Y5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1C06060-5DC0-423A-BF91-059D07F2E145}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y6:Y7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C3720DAF-15FE-4493-9895-E4B6577AA37D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y8:Y9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3FFEFBFC-8CA4-4174-B846-C9569A9E7D24}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y10:Y11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F020C70-0E57-4D47-A3EB-7E19A1023743}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y23:Y24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F473CC3F-539B-45AD-9895-E9850BCB3104}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y25:Y26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7CF5EA7A-814F-4F87-98A1-39E58C9B460C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y27:Y28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{48ADDB89-0D93-4D98-A752-FAA1B60D1D7D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y29:Y30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF9D57B7-330C-4D68-BE35-839CDD491D39}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y31:Y32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4086,7 +4369,7 @@
   <dimension ref="A1:AZ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4095,10 +4378,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -4263,207 +4546,207 @@
         <v>59</v>
       </c>
       <c r="B3" s="1">
-        <f>100-B2</f>
+        <f t="shared" ref="B3:AG3" si="0">100-B2</f>
         <v>50</v>
       </c>
       <c r="C3" s="1">
-        <f>100-C2</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D3" s="1">
-        <f>100-D2</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E3" s="1">
-        <f>100-E2</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="F3" s="1">
-        <f>100-F2</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="G3" s="1">
-        <f>100-G2</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="H3" s="1">
-        <f>100-H2</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="I3" s="1">
-        <f>100-I2</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="J3" s="1">
-        <f>100-J2</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="K3" s="1">
-        <f>100-K2</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="L3" s="1">
-        <f>100-L2</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="M3" s="1">
-        <f>100-M2</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="N3" s="1">
-        <f>100-N2</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="O3" s="1">
-        <f>100-O2</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="P3" s="1">
-        <f>100-P2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="Q3" s="1">
-        <f>100-Q2</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="R3" s="1">
-        <f>100-R2</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="S3" s="1">
-        <f>100-S2</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="T3" s="1">
-        <f>100-T2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="U3" s="1">
-        <f>100-U2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="V3" s="1">
-        <f>100-V2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="W3" s="1">
-        <f>100-W2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="X3" s="1">
-        <f>100-X2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="Y3" s="1">
-        <f>100-Y2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="Z3" s="1">
-        <f>100-Z2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="AA3" s="1">
-        <f>100-AA2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="AB3" s="1">
-        <f>100-AB2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AC3" s="1">
-        <f>100-AC2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="AD3" s="1">
-        <f>100-AD2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="AE3" s="1">
-        <f>100-AE2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="AF3" s="1">
-        <f>100-AF2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AG3" s="1">
-        <f>100-AG2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AH3" s="1">
-        <f>100-AH2</f>
+        <f t="shared" ref="AH3:AZ3" si="1">100-AH2</f>
         <v>18</v>
       </c>
       <c r="AI3" s="1">
-        <f>100-AI2</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AJ3" s="1">
-        <f>100-AJ2</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="AK3" s="1">
-        <f>100-AK2</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="AL3" s="1">
-        <f>100-AL2</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AM3" s="1">
-        <f>100-AM2</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="AN3" s="1">
-        <f>100-AN2</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AO3" s="1">
-        <f>100-AO2</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AP3" s="1">
-        <f>100-AP2</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AQ3" s="1">
-        <f>100-AQ2</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AR3" s="1">
-        <f>100-AR2</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AS3" s="1">
-        <f>100-AS2</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AT3" s="1">
-        <f>100-AT2</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AU3" s="1">
-        <f>100-AU2</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AV3" s="1">
-        <f>100-AV2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AW3" s="1">
-        <f>100-AW2</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AX3" s="1">
-        <f>100-AX2</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AY3" s="1">
-        <f>100-AY2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ3" s="1">
-        <f>100-AZ2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4472,207 +4755,207 @@
         <v>60</v>
       </c>
       <c r="B4" s="1">
-        <f>B2-B3</f>
+        <f t="shared" ref="B4:AG4" si="2">B2-B3</f>
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2-C3</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <f>D2-D3</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <f>E2-E3</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F4" s="1">
-        <f>F2-F3</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G4" s="1">
-        <f>G2-G3</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H4" s="1">
-        <f>H2-H3</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I4" s="1">
-        <f>I2-I3</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="J4" s="1">
-        <f>J2-J3</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K4" s="1">
-        <f>K2-K3</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="L4" s="1">
-        <f>L2-L3</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M4" s="1">
-        <f>M2-M3</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="N4" s="1">
-        <f>N2-N3</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="O4" s="1">
-        <f>O2-O3</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="P4" s="1">
-        <f>P2-P3</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="Q4" s="1">
-        <f>Q2-Q3</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="R4" s="1">
-        <f>R2-R3</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="S4" s="1">
-        <f>S2-S3</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="T4" s="1">
-        <f>T2-T3</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="U4" s="1">
-        <f>U2-U3</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="V4" s="1">
-        <f>V2-V3</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="W4" s="1">
-        <f>W2-W3</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="X4" s="1">
-        <f>X2-X3</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="Y4" s="1">
-        <f>Y2-Y3</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="Z4" s="1">
-        <f>Z2-Z3</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="AA4" s="1">
-        <f>AA2-AA3</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AB4" s="1">
-        <f>AB2-AB3</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="AC4" s="1">
-        <f>AC2-AC3</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="AD4" s="1">
-        <f>AD2-AD3</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="AE4" s="1">
-        <f>AE2-AE3</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="AF4" s="1">
-        <f>AF2-AF3</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="AG4" s="1">
-        <f>AG2-AG3</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="AH4" s="1">
-        <f>AH2-AH3</f>
+        <f t="shared" ref="AH4:AZ4" si="3">AH2-AH3</f>
         <v>64</v>
       </c>
       <c r="AI4" s="1">
-        <f>AI2-AI3</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="AJ4" s="1">
-        <f>AJ2-AJ3</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="AK4" s="1">
-        <f>AK2-AK3</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="AL4" s="1">
-        <f>AL2-AL3</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="AM4" s="1">
-        <f>AM2-AM3</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="AN4" s="1">
-        <f>AN2-AN3</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="AO4" s="1">
-        <f>AO2-AO3</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="AP4" s="1">
-        <f>AP2-AP3</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="AQ4" s="1">
-        <f>AQ2-AQ3</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="AR4" s="1">
-        <f>AR2-AR3</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="AS4" s="1">
-        <f>AS2-AS3</f>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="AT4" s="1">
-        <f>AT2-AT3</f>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="AU4" s="1">
-        <f>AU2-AU3</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="AV4" s="1">
-        <f>AV2-AV3</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="AW4" s="1">
-        <f>AW2-AW3</f>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="AX4" s="1">
-        <f>AX2-AX3</f>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="AY4" s="1">
-        <f>AY2-AY3</f>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="AZ4" s="1">
-        <f>AZ2-AZ3</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -4697,4 +4980,131 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446543E-94EF-4E69-85C4-072F1871AE74}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10">
+        <v>64</v>
+      </c>
+      <c r="C2" s="10">
+        <v>76</v>
+      </c>
+      <c r="D2" s="10">
+        <v>61</v>
+      </c>
+      <c r="E2" s="10">
+        <v>62</v>
+      </c>
+      <c r="F2" s="10">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED66CCE-DA6F-4408-8A07-E789E35B7C29}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="5" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="str">
+        <f ca="1">raw!B34</f>
+        <v>I</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f ca="1">raw!C34</f>
+        <v>N</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f ca="1">raw!D34</f>
+        <v>F</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f ca="1">raw!E34</f>
+        <v>J</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f ca="1">raw!F34</f>
+        <v>-T</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="12">
+        <f ca="1">raw!B35*100</f>
+        <v>57.7382729936038</v>
+      </c>
+      <c r="C2" s="12">
+        <f ca="1">raw!C35*100</f>
+        <v>68.256983287234036</v>
+      </c>
+      <c r="D2" s="12">
+        <f ca="1">raw!D35*100</f>
+        <v>50.975940730762645</v>
+      </c>
+      <c r="E2" s="12">
+        <f ca="1">raw!E35*100</f>
+        <v>53.28069726365873</v>
+      </c>
+      <c r="F2" s="12">
+        <f ca="1">raw!F35*100</f>
+        <v>53.40769709786958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M3" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>